--- a/resources/Dates_207.xlsx
+++ b/resources/Dates_207.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
   <si>
     <t>url</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t>Case Studies</t>
+  </si>
+  <si>
+    <t>Getting Organized I</t>
+  </si>
+  <si>
+    <t>GetOrganized1</t>
+  </si>
+  <si>
+    <t>GetOrganized2</t>
   </si>
 </sst>
 </file>
@@ -670,7 +679,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,10 +716,10 @@
         <v>44573</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -728,7 +737,7 @@
         <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">

--- a/resources/Dates_207.xlsx
+++ b/resources/Dates_207.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="90">
   <si>
     <t>url</t>
   </si>
@@ -282,12 +282,6 @@
     <t>NO CLASS (Dr. Ogle Gone)</t>
   </si>
   <si>
-    <t>CATCH UP DAY</t>
-  </si>
-  <si>
-    <t>Case Studies</t>
-  </si>
-  <si>
     <t>Getting Organized I</t>
   </si>
   <si>
@@ -295,6 +289,12 @@
   </si>
   <si>
     <t>GetOrganized2</t>
+  </si>
+  <si>
+    <t>Logistic Reg -- Summary</t>
+  </si>
+  <si>
+    <t>LogRegSummary</t>
   </si>
 </sst>
 </file>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,10 +716,10 @@
         <v>44573</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -737,7 +737,7 @@
         <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1316,7 +1316,10 @@
         <v>44655</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1331,7 +1334,7 @@
         <v>44657</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1346,7 +1349,7 @@
         <v>44659</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1406,7 +1409,7 @@
         <v>44671</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
